--- a/data/input/management/202509.xlsx
+++ b/data/input/management/202509.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_4172B9D7B814EDFF0C6226F842D1C22C2FD298C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA815900-42CF-4861-85B7-4AEDC17F8886}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_4172B9D7B814EDFF0C6226F842D1C22C2FD298C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C019D99-1F63-4618-AA86-6256B930C412}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T23" workbookViewId="0">
-      <selection activeCell="AO44" sqref="AO44"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input/management/202509.xlsx
+++ b/data/input/management/202509.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_4172B9D7B814EDFF0C6226F842D1C22C2FD298C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C019D99-1F63-4618-AA86-6256B930C412}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5CE8C5-0986-461E-8CCD-31922ABA36E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28B14F2B-D36D-41BD-A5DB-5B73AF4D6E13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="914631 08.09.2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_914631" localSheetId="0">Φύλλο1!$A$2:$AR$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$AQ$41</definedName>
+    <definedName name="_914631" localSheetId="0">'914631 08.09.2025'!$A$2:$AQ$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'914631 08.09.2025'!$A$1:$AQ$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,6 +97,135 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="220">
   <si>
+    <t>ΔΙΑΔΡΟΜΗ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΠΑΡΟΧΗΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΑΠΌ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΕΩΣ</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡ.ΛΗΞΕΩΣ</t>
+  </si>
+  <si>
+    <t>ΗΜ.ΚΑΤΑΝΑΛΩΣΗΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΦ.ΓΡΑΦ.</t>
+  </si>
+  <si>
+    <t>ΤΙΜΟΛΟΓΙΟ</t>
+  </si>
+  <si>
+    <t>ΙΔΙΟΚΤΗΤΗΣ</t>
+  </si>
+  <si>
+    <t>ΕΝΟΙΚΟΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΕΥΘΥΝΣΗ</t>
+  </si>
+  <si>
+    <t>ΑΦΜ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΜΕΤΡΗΤΗ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΜ.</t>
+  </si>
+  <si>
+    <t>ΠΡΟΗΓ.ΕΝΔ.</t>
+  </si>
+  <si>
+    <t>ΠΑΡ.ΕΝΔΕΙΞΗ</t>
+  </si>
+  <si>
+    <t>ΤΕΚΜ.</t>
+  </si>
+  <si>
+    <t>ΤΡΙΜ</t>
+  </si>
+  <si>
+    <t>ΠΡΟΣΘ</t>
+  </si>
+  <si>
+    <t>ΤΥΠΟΣ ΛΟΓΑΡΙΑΣΜΟΥ</t>
+  </si>
+  <si>
+    <t>ΚΥΒΙΚΑ 1</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 1</t>
+  </si>
+  <si>
+    <t>ΚΥΒΙΚΑ 2</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 2</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.3</t>
+  </si>
+  <si>
+    <t>ΤΙΜ.3</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.4</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 4</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.5</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 5</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ</t>
+  </si>
+  <si>
+    <t>ΠΑΓΙΟ</t>
+  </si>
+  <si>
+    <t>ΤΕΑΠ</t>
+  </si>
+  <si>
+    <t>ΟΑΠ</t>
+  </si>
+  <si>
+    <t>ΦΠΑ ΤΙΜ.</t>
+  </si>
+  <si>
+    <t>ΦΠΑ ΛΟΙΠΩΝ</t>
+  </si>
+  <si>
+    <t>ΕΡΓΑΣΙΕΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΦ.ΚΕΡΜ.</t>
+  </si>
+  <si>
+    <t>ΚΥΡΙΑ ΟΦ.</t>
+  </si>
+  <si>
+    <t>ΠΙΣΤΩΤΙΚΟ</t>
+  </si>
+  <si>
+    <t>ΟΦΕΙΛΗ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΠΑΡΑΣΤΑΤΙΚΟΥ</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
+  </si>
+  <si>
     <t>Α</t>
   </si>
   <si>
@@ -626,135 +755,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.03</t>
-  </si>
-  <si>
-    <t>ΔΙΑΔΡΟΜΗ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΠΑΡΟΧΗΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΑΠΌ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΕΩΣ</t>
-  </si>
-  <si>
-    <t>ΗΜΕΡ.ΛΗΞΕΩΣ</t>
-  </si>
-  <si>
-    <t>ΗΜ.ΚΑΤΑΝΑΛΩΣΗΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΦ.ΓΡΑΦ.</t>
-  </si>
-  <si>
-    <t>ΤΙΜΟΛΟΓΙΟ</t>
-  </si>
-  <si>
-    <t>ΙΔΙΟΚΤΗΤΗΣ</t>
-  </si>
-  <si>
-    <t>ΕΝΟΙΚΟΣ</t>
-  </si>
-  <si>
-    <t>ΔΙΕΥΘΥΝΣΗ</t>
-  </si>
-  <si>
-    <t>ΑΦΜ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΜΕΤΡΗΤΗ</t>
-  </si>
-  <si>
-    <t>ΔΙΑΜ.</t>
-  </si>
-  <si>
-    <t>ΠΡΟΗΓ.ΕΝΔ.</t>
-  </si>
-  <si>
-    <t>ΠΑΡ.ΕΝΔΕΙΞΗ</t>
-  </si>
-  <si>
-    <t>ΤΕΚΜ.</t>
-  </si>
-  <si>
-    <t>ΤΡΙΜ</t>
-  </si>
-  <si>
-    <t>ΠΡΟΣΘ</t>
-  </si>
-  <si>
-    <t>ΤΥΠΟΣ ΛΟΓΑΡΙΑΣΜΟΥ</t>
-  </si>
-  <si>
-    <t>ΚΥΒΙΚΑ 1</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 1</t>
-  </si>
-  <si>
-    <t>ΚΥΒΙΚΑ 2</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 2</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.3</t>
-  </si>
-  <si>
-    <t>ΤΙΜ.3</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.4</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 4</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.5</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 5</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ</t>
-  </si>
-  <si>
-    <t>ΠΑΓΙΟ</t>
-  </si>
-  <si>
-    <t>ΤΕΑΠ</t>
-  </si>
-  <si>
-    <t>ΟΑΠ</t>
-  </si>
-  <si>
-    <t>ΦΠΑ ΤΙΜ.</t>
-  </si>
-  <si>
-    <t>ΦΠΑ ΛΟΙΠΩΝ</t>
-  </si>
-  <si>
-    <t>ΕΡΓΑΣΙΕΣ</t>
-  </si>
-  <si>
-    <t>ΔΙΑΦ.ΚΕΡΜ.</t>
-  </si>
-  <si>
-    <t>ΚΥΡΙΑ ΟΦ.</t>
-  </si>
-  <si>
-    <t>ΠΙΣΤΩΤΙΚΟ</t>
-  </si>
-  <si>
-    <t>ΟΦΕΙΛΗ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΠΑΡΑΣΤΑΤΙΚΟΥ</t>
-  </si>
-  <si>
-    <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,13 +902,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Κανονικό 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Κανονικό 2" xfId="1" xr:uid="{C118879B-BA5D-49BD-9071-4123C2C8726A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="914631" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="914631" connectionId="1" xr16:uid="{797290F9-E395-4BC0-ABA7-A79D6072A4A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,20 +1190,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19584B79-6442-45FD-A8C1-568A6EAA04CC}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AV19" sqref="AV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1232,159 +1233,159 @@
     <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.85546875" style="12" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" style="11" customWidth="1"/>
+    <col min="43" max="43" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>219</v>
+    <row r="1" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>221</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>45895</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L2">
         <v>996866969</v>
@@ -1405,30 +1406,30 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO2" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="11">
         <v>20250007703138</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -1439,41 +1440,41 @@
       <c r="B3">
         <v>2103441</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>45755</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>45840</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>45915</v>
       </c>
       <c r="F3">
         <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="L3">
         <v>996866969</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="O3">
         <v>7503</v>
@@ -1491,69 +1492,69 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AB3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="AD3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AE3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="AH3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="AJ3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="AL3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO3" s="10">
         <v>2173.35</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="11">
         <v>20250007503468</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="9">
         <v>45887</v>
       </c>
     </row>
@@ -1564,41 +1565,41 @@
       <c r="B4">
         <v>405676</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>45784</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>45869</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>45910</v>
       </c>
       <c r="F4">
         <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L4">
         <v>996866969</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O4">
         <v>5328</v>
@@ -1616,51 +1617,51 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM4" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO4" s="10">
         <v>18.77</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="11">
         <v>20250007359057</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -1671,41 +1672,41 @@
       <c r="B5">
         <v>1902746</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>45784</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>45869</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>45910</v>
       </c>
       <c r="F5">
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L5">
         <v>996866969</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O5">
         <v>2591</v>
@@ -1723,51 +1724,51 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AE5" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="AJ5" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM5" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="AN5" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO5" s="10">
         <v>25.36</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="11">
         <v>20250007361226</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -1778,41 +1779,41 @@
       <c r="B6">
         <v>1902747</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>45784</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>45869</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>45910</v>
       </c>
       <c r="F6">
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>996866969</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O6">
         <v>1772</v>
@@ -1830,45 +1831,45 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AE6" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="AI6" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="AL6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM6" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="AN6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="10">
         <v>10.050000000000001</v>
       </c>
-      <c r="AP6" s="12">
+      <c r="AP6" s="11">
         <v>20250007361227</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -1879,41 +1880,41 @@
       <c r="B7">
         <v>1902748</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>45784</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>45869</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>45910</v>
       </c>
       <c r="F7">
         <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <v>996866969</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O7">
         <v>1891</v>
@@ -1931,45 +1932,45 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AE7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AI7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AJ7" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="AL7" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AN7" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO7" s="10">
         <v>12.93</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="11">
         <v>20250007361228</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -1980,41 +1981,41 @@
       <c r="B8">
         <v>1902749</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>45784</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>45869</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
         <v>45910</v>
       </c>
       <c r="F8">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L8">
         <v>996866969</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <v>520</v>
@@ -2032,45 +2033,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="V8" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AE8" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AF8" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="AI8" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="AL8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="AN8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO8" s="10">
         <v>8.61</v>
       </c>
-      <c r="AP8" s="12">
+      <c r="AP8" s="11">
         <v>20250007361229</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -2081,41 +2082,41 @@
       <c r="B9">
         <v>1902750</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>45784</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <v>45869</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>45910</v>
       </c>
       <c r="F9">
         <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>996866969</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O9">
         <v>1788</v>
@@ -2133,51 +2134,51 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AE9" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AF9" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AI9" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AL9" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM9" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO9" s="10">
         <v>26.68</v>
       </c>
-      <c r="AP9" s="12">
+      <c r="AP9" s="11">
         <v>20250007361230</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -2188,41 +2189,41 @@
       <c r="B10">
         <v>1902751</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>45784</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <v>45869</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
         <v>45910</v>
       </c>
       <c r="F10">
         <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>996866969</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O10">
         <v>1698</v>
@@ -2240,45 +2241,45 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AE10" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AF10" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AI10" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="AJ10" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM10" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="AN10" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO10" s="10">
         <v>11.49</v>
       </c>
-      <c r="AP10" s="12">
+      <c r="AP10" s="11">
         <v>20250007361231</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -2289,41 +2290,41 @@
       <c r="B11">
         <v>1902752</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>45784</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>45869</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
         <v>45910</v>
       </c>
       <c r="F11">
         <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>996866969</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O11">
         <v>2409</v>
@@ -2341,51 +2342,51 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM11" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AN11" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO11" s="10">
         <v>18.77</v>
       </c>
-      <c r="AP11" s="12">
+      <c r="AP11" s="11">
         <v>20250007361232</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AQ11" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -2396,41 +2397,41 @@
       <c r="B12">
         <v>405688</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>45784</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>45869</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>45910</v>
       </c>
       <c r="F12">
         <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="L12">
         <v>996866969</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="O12">
         <v>24232</v>
@@ -2448,69 +2449,69 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="X12" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="Y12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="Z12" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AB12" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AC12" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AD12" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="AE12" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="AH12" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="AI12" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AL12" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM12" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="AN12" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO12" s="10">
         <v>429.19</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AP12" s="11">
         <v>20250007359068</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ12" s="9">
         <v>45881</v>
       </c>
     </row>
@@ -2521,41 +2522,41 @@
       <c r="B13">
         <v>1835245</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>45787</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>45874</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>45912</v>
       </c>
       <c r="F13">
         <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="L13">
         <v>996866969</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O13">
         <v>3660</v>
@@ -2564,7 +2565,7 @@
         <v>3660</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2573,45 +2574,45 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="V13" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AE13" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AF13" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="AH13" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AI13" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM13" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="AN13" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AO13" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="11">
         <v>20250007460620</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ13" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -2622,41 +2623,41 @@
       <c r="B14">
         <v>2121795</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>45786</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>45875</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>45912</v>
       </c>
       <c r="F14">
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L14">
         <v>996866969</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O14">
         <v>2029</v>
@@ -2674,51 +2675,51 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="V14" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="W14" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="AH14" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="AI14" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="AJ14" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM14" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="AN14" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="AO14" s="10">
         <v>5.3</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="11">
         <v>20250007460913</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AQ14" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -2729,41 +2730,41 @@
       <c r="B15">
         <v>2121796</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>45786</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>45875</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>45912</v>
       </c>
       <c r="F15">
         <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L15">
         <v>996866969</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O15">
         <v>2712</v>
@@ -2781,51 +2782,51 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="V15" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="W15" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="X15" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="AE15" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="AH15" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="AI15" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="AJ15" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM15" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="AN15" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="AO15" s="10">
         <v>6.16</v>
       </c>
-      <c r="AP15" s="12">
+      <c r="AP15" s="11">
         <v>20250007460914</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AQ15" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -2836,41 +2837,41 @@
       <c r="B16">
         <v>2121797</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>45786</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>45875</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>45912</v>
       </c>
       <c r="F16">
         <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L16">
         <v>996866969</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O16">
         <v>1206</v>
@@ -2888,51 +2889,51 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="V16" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="W16" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AE16" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="AH16" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="AI16" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="AJ16" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM16" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="AO16" s="10">
         <v>15.04</v>
       </c>
-      <c r="AP16" s="12">
+      <c r="AP16" s="11">
         <v>20250007460915</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="AQ16" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -2943,41 +2944,41 @@
       <c r="B17">
         <v>2121799</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>45786</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="9">
         <v>45875</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>45912</v>
       </c>
       <c r="F17">
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L17">
         <v>996866969</v>
       </c>
       <c r="M17" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O17">
         <v>913</v>
@@ -2995,45 +2996,45 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="V17" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="AE17" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="AH17" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="AI17" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="AJ17" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM17" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="AO17" s="10">
         <v>0.98</v>
       </c>
-      <c r="AP17" s="12">
+      <c r="AP17" s="11">
         <v>20250007460917</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AQ17" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -3044,41 +3045,41 @@
       <c r="B18">
         <v>2121801</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="9">
         <v>45786</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="9">
         <v>45875</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="9">
         <v>45912</v>
       </c>
       <c r="F18">
         <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L18">
         <v>996866969</v>
       </c>
       <c r="M18" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O18">
         <v>1768</v>
@@ -3096,45 +3097,45 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="V18" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="AE18" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="AH18" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="AI18" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM18" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="AN18" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="AO18" s="10">
         <v>5.79</v>
       </c>
-      <c r="AP18" s="12">
+      <c r="AP18" s="11">
         <v>20250007460919</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AQ18" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -3145,32 +3146,32 @@
       <c r="B19">
         <v>677201</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="9">
         <v>45791</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="9">
         <v>45877</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <v>45912</v>
       </c>
       <c r="F19">
         <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="L19">
         <v>996866969</v>
@@ -3179,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3197,33 +3198,33 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="AF19" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="AI19" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AJ19" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM19" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO19" s="10">
         <v>3.6</v>
       </c>
-      <c r="AP19" s="12">
+      <c r="AP19" s="11">
         <v>20250007458504</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AQ19" s="9">
         <v>45883</v>
       </c>
     </row>
@@ -3231,20 +3232,20 @@
       <c r="B20">
         <v>689107</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9">
         <v>45895</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L20">
         <v>996866969</v>
@@ -3265,30 +3266,30 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK20" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM20" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO20" s="10">
         <v>0.75</v>
       </c>
-      <c r="AP20" s="12">
+      <c r="AP20" s="11">
         <v>20250007703170</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AQ20" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3296,20 +3297,20 @@
       <c r="B21">
         <v>689108</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <v>45895</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L21">
         <v>996866969</v>
@@ -3330,30 +3331,30 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK21" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="AL21" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM21" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="AN21" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO21" s="10">
         <v>0.09</v>
       </c>
-      <c r="AP21" s="12">
+      <c r="AP21" s="11">
         <v>20250007703171</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AQ21" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3361,20 +3362,20 @@
       <c r="B22">
         <v>1005741</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <v>45895</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L22">
         <v>996866969</v>
@@ -3395,30 +3396,30 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK22" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM22" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO22" s="10">
         <v>0.16</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AP22" s="11">
         <v>20250007703172</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3426,20 +3427,20 @@
       <c r="B23">
         <v>2174564</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
         <v>45895</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I23" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L23">
         <v>996866969</v>
@@ -3460,30 +3461,30 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK23" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM23" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO23" s="10">
         <v>0.22</v>
       </c>
-      <c r="AP23" s="12">
+      <c r="AP23" s="11">
         <v>20250007703173</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3491,20 +3492,20 @@
       <c r="B24">
         <v>2174565</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="9">
         <v>45895</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L24">
         <v>996866969</v>
@@ -3525,30 +3526,30 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK24" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AL24" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM24" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AN24" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO24" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP24" s="12">
+      <c r="AP24" s="11">
         <v>20250007703174</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AQ24" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3556,20 +3557,20 @@
       <c r="B25">
         <v>2174566</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="9">
         <v>45895</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L25">
         <v>996866969</v>
@@ -3590,30 +3591,30 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK25" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="AL25" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM25" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="AN25" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO25" s="10">
         <v>0.18</v>
       </c>
-      <c r="AP25" s="12">
+      <c r="AP25" s="11">
         <v>20250007703175</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3621,20 +3622,20 @@
       <c r="B26">
         <v>2174567</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="9">
         <v>45895</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L26">
         <v>996866969</v>
@@ -3655,30 +3656,30 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK26" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AL26" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM26" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AN26" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO26" s="10">
         <v>0.17</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AP26" s="11">
         <v>20250007703176</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3686,20 +3687,20 @@
       <c r="B27">
         <v>2174568</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <v>45895</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L27">
         <v>996866969</v>
@@ -3720,30 +3721,30 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK27" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="AL27" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM27" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="AN27" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO27" s="10">
         <v>0.09</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AP27" s="11">
         <v>20250007703177</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AQ27" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3751,20 +3752,20 @@
       <c r="B28">
         <v>2174569</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="9">
         <v>45895</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L28">
         <v>996866969</v>
@@ -3785,30 +3786,30 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK28" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM28" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="AN28" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO28" s="10">
         <v>0.21</v>
       </c>
-      <c r="AP28" s="12">
+      <c r="AP28" s="11">
         <v>20250007703178</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AQ28" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3816,20 +3817,20 @@
       <c r="B29">
         <v>2174570</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="9">
         <v>45895</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I29" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L29">
         <v>996866969</v>
@@ -3850,30 +3851,30 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK29" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="AL29" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM29" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="AN29" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO29" s="10">
         <v>0.22</v>
       </c>
-      <c r="AP29" s="12">
+      <c r="AP29" s="11">
         <v>20250007703179</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AQ29" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3881,20 +3882,20 @@
       <c r="B30">
         <v>2174571</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="9">
         <v>45895</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L30">
         <v>996866969</v>
@@ -3915,30 +3916,30 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK30" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="AL30" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM30" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="AN30" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO30" s="10">
         <v>2.04</v>
       </c>
-      <c r="AP30" s="12">
+      <c r="AP30" s="11">
         <v>20250007703180</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AQ30" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -3946,20 +3947,20 @@
       <c r="B31">
         <v>2174572</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="9">
         <v>45895</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L31">
         <v>996866969</v>
@@ -3980,30 +3981,30 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK31" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AL31" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM31" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AN31" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO31" s="10">
         <v>0.13</v>
       </c>
-      <c r="AP31" s="12">
+      <c r="AP31" s="11">
         <v>20250007703181</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AQ31" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4011,20 +4012,20 @@
       <c r="B32">
         <v>2174573</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="9">
         <v>45895</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L32">
         <v>996866969</v>
@@ -4045,30 +4046,30 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK32" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AL32" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM32" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO32" s="10">
         <v>0.17</v>
       </c>
-      <c r="AP32" s="12">
+      <c r="AP32" s="11">
         <v>20250007703182</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AQ32" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4076,20 +4077,20 @@
       <c r="B33">
         <v>2174574</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="9">
         <v>45895</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L33">
         <v>996866969</v>
@@ -4110,30 +4111,30 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK33" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AL33" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM33" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AN33" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO33" s="10">
         <v>0.16</v>
       </c>
-      <c r="AP33" s="12">
+      <c r="AP33" s="11">
         <v>20250007703183</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AQ33" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4141,20 +4142,20 @@
       <c r="B34">
         <v>2174575</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="9">
         <v>45895</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L34">
         <v>996866969</v>
@@ -4175,30 +4176,30 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK34" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="AL34" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM34" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="AN34" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO34" s="10">
         <v>0.34</v>
       </c>
-      <c r="AP34" s="12">
+      <c r="AP34" s="11">
         <v>20250007703184</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AQ34" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4206,20 +4207,20 @@
       <c r="B35">
         <v>2174576</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="9">
         <v>45895</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L35">
         <v>996866969</v>
@@ -4240,30 +4241,30 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK35" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="AL35" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM35" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="AN35" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO35" s="10">
         <v>0.4</v>
       </c>
-      <c r="AP35" s="12">
+      <c r="AP35" s="11">
         <v>20250007703185</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AQ35" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4271,20 +4272,20 @@
       <c r="B36">
         <v>2174577</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="9">
         <v>45895</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L36">
         <v>996866969</v>
@@ -4305,30 +4306,30 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK36" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="AL36" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM36" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="AN36" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO36" s="10">
         <v>1.48</v>
       </c>
-      <c r="AP36" s="12">
+      <c r="AP36" s="11">
         <v>20250007703186</v>
       </c>
-      <c r="AQ36" s="1">
+      <c r="AQ36" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4336,20 +4337,20 @@
       <c r="B37">
         <v>2174578</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="9">
         <v>45895</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I37" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L37">
         <v>996866969</v>
@@ -4370,30 +4371,30 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK37" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM37" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AN37" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO37" s="10">
         <v>0.17</v>
       </c>
-      <c r="AP37" s="12">
+      <c r="AP37" s="11">
         <v>20250007703187</v>
       </c>
-      <c r="AQ37" s="1">
+      <c r="AQ37" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4401,20 +4402,20 @@
       <c r="B38">
         <v>2174579</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="9">
         <v>45895</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L38">
         <v>996866969</v>
@@ -4435,30 +4436,30 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK38" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AL38" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM38" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AN38" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO38" s="10">
         <v>0.19</v>
       </c>
-      <c r="AP38" s="12">
+      <c r="AP38" s="11">
         <v>20250007703188</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AQ38" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4466,20 +4467,20 @@
       <c r="B39">
         <v>2174580</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="9">
         <v>45895</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L39">
         <v>996866969</v>
@@ -4500,30 +4501,30 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK39" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="AL39" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM39" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="AN39" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO39" s="10">
         <v>0.03</v>
       </c>
-      <c r="AP39" s="12">
+      <c r="AP39" s="11">
         <v>20250007703189</v>
       </c>
-      <c r="AQ39" s="1">
+      <c r="AQ39" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4531,20 +4532,20 @@
       <c r="B40">
         <v>2174581</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="9">
         <v>45895</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L40">
         <v>996866969</v>
@@ -4565,30 +4566,30 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK40" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AL40" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM40" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AN40" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO40" s="10">
         <v>0.19</v>
       </c>
-      <c r="AP40" s="12">
+      <c r="AP40" s="11">
         <v>20250007703190</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AQ40" s="9">
         <v>45895</v>
       </c>
     </row>
@@ -4596,20 +4597,20 @@
       <c r="B41">
         <v>2174582</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="9">
         <v>45895</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="L41">
         <v>996866969</v>
@@ -4630,38 +4631,38 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AK41" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AL41" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AM41" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AN41" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO41" s="10">
         <v>0.27</v>
       </c>
-      <c r="AP41" s="12">
+      <c r="AP41" s="11">
         <v>20250007703191</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AQ41" s="9">
         <v>45895</v>
       </c>
     </row>
     <row r="44" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="AO44" s="11"/>
+      <c r="AO44" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ41" xr:uid="{9155CF39-E11A-4BDF-AAE8-1FFBF1E3FB75}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>